--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kproductivity-my.sharepoint.com/personal/sascha_diotte_kroger_com/Documents/Documents/Code Kentucky/DSDRCV_Invoice_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{649B58DC-9A95-4E73-93FA-E64CE27DE960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9D9B04B-9189-42C2-A6EB-FA80DED17F81}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="8_{649B58DC-9A95-4E73-93FA-E64CE27DE960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22D024EA-14EE-4F5F-9477-9764328C4CE6}"/>
   <bookViews>
-    <workbookView xWindow="11508" yWindow="-12" windowWidth="11544" windowHeight="12384" firstSheet="2" activeTab="2" xr2:uid="{A8A70907-6220-41AD-A370-C330A672817B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A8A70907-6220-41AD-A370-C330A672817B}"/>
   </bookViews>
   <sheets>
     <sheet name="Store_Dictionary" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Invoice_Line_Dictionary" sheetId="1" r:id="rId3"/>
     <sheet name="Supplier_Dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Invoice_Header_Dictionary!$A$1:$D$73</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1138,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1167,6 +1170,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1175,6 +1189,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1185,24 +1208,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1668,20 +1683,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF67149-916F-41F0-84C7-130E9AD548E7}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="8.88671875" style="12"/>
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5546875" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1693,12 +1709,13 @@
       <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="E1" s="27"/>
       <c r="G1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1710,12 +1727,13 @@
       <c r="D2" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E2" s="24"/>
       <c r="G2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1727,9 +1745,10 @@
       <c r="D3" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="10" t="s">
         <v>225</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1741,23 +1760,25 @@
       <c r="D4" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="14" t="s">
         <v>222</v>
       </c>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="10" t="s">
         <v>221</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1769,9 +1790,10 @@
       <c r="D6" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1783,93 +1805,103 @@
       <c r="D7" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="15" t="s">
         <v>228</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>216</v>
       </c>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3" t="s">
         <v>215</v>
       </c>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="15" t="s">
         <v>228</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>211</v>
       </c>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="3" t="s">
         <v>210</v>
       </c>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3" t="s">
         <v>209</v>
       </c>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3" t="s">
         <v>208</v>
       </c>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="3" t="s">
         <v>207</v>
       </c>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:7" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
         <v>205</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1881,9 +1913,10 @@
       <c r="D17" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
         <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1895,9 +1928,10 @@
       <c r="D18" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1909,9 +1943,10 @@
       <c r="D19" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>199</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1923,9 +1958,10 @@
       <c r="D20" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
         <v>196</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1937,9 +1973,10 @@
       <c r="D21" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
         <v>194</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1951,9 +1988,10 @@
       <c r="D22" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
         <v>191</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1965,9 +2003,10 @@
       <c r="D23" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
         <v>189</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1979,9 +2018,10 @@
       <c r="D24" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1993,223 +2033,250 @@
       <c r="D25" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="15" t="s">
         <v>227</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="367.2" x14ac:dyDescent="0.3">
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5" ht="367.2" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E32" s="26"/>
+    </row>
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E34" s="26"/>
+    </row>
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="194.4" x14ac:dyDescent="0.3">
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" ht="194.4" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="7" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="7" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="11"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="205.2" x14ac:dyDescent="0.3">
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:5" ht="205.2" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="11"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="7" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E39" s="26"/>
+    </row>
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="11"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="162" x14ac:dyDescent="0.3">
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:5" ht="162" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="11"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="11"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="11"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="11"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="237.6" x14ac:dyDescent="0.3">
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" ht="237.6" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="11"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="7" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E45" s="26"/>
+    </row>
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="11"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="399.6" x14ac:dyDescent="0.3">
+      <c r="E46" s="24"/>
+    </row>
+    <row r="47" spans="1:5" ht="399.6" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="11"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="E47" s="26"/>
+    </row>
+    <row r="48" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="11"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="237.6" x14ac:dyDescent="0.3">
+      <c r="E48" s="24"/>
+    </row>
+    <row r="49" spans="1:5" ht="237.6" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="11"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="7" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="E49" s="26"/>
+    </row>
+    <row r="50" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="11"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="24"/>
+    </row>
+    <row r="51" spans="1:5" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="20"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="12"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
+      <c r="E51" s="26"/>
+    </row>
+    <row r="52" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2221,9 +2288,10 @@
       <c r="D52" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
         <v>155</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2235,9 +2303,10 @@
       <c r="D53" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="16" t="s">
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="1:5" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
         <v>153</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2249,9 +2318,10 @@
       <c r="D54" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="16" t="s">
+      <c r="E54" s="24"/>
+    </row>
+    <row r="55" spans="1:5" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
         <v>152</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2263,9 +2333,10 @@
       <c r="D55" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
+      <c r="E55" s="24"/>
+    </row>
+    <row r="56" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
         <v>151</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2277,9 +2348,10 @@
       <c r="D56" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
         <v>149</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2291,9 +2363,10 @@
       <c r="D57" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="16" t="s">
+      <c r="E57" s="24"/>
+    </row>
+    <row r="58" spans="1:5" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
         <v>146</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2305,9 +2378,10 @@
       <c r="D58" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="16" t="s">
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59" spans="1:5" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
         <v>144</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2319,9 +2393,10 @@
       <c r="D59" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="16" t="s">
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2333,9 +2408,10 @@
       <c r="D60" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="16" t="s">
+      <c r="E60" s="24"/>
+    </row>
+    <row r="61" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2347,9 +2423,10 @@
       <c r="D61" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="16" t="s">
+      <c r="E61" s="24"/>
+    </row>
+    <row r="62" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="10" t="s">
         <v>138</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2361,9 +2438,10 @@
       <c r="D62" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="16" t="s">
+      <c r="E62" s="24"/>
+    </row>
+    <row r="63" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2375,9 +2453,10 @@
       <c r="D63" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="16" t="s">
+      <c r="E63" s="24"/>
+    </row>
+    <row r="64" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2389,9 +2468,10 @@
       <c r="D64" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="16" t="s">
+      <c r="E64" s="24"/>
+    </row>
+    <row r="65" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="10" t="s">
         <v>132</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2403,9 +2483,10 @@
       <c r="D65" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="16" t="s">
+      <c r="E65" s="24"/>
+    </row>
+    <row r="66" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2417,9 +2498,10 @@
       <c r="D66" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="16" t="s">
+      <c r="E66" s="24"/>
+    </row>
+    <row r="67" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2431,9 +2513,10 @@
       <c r="D67" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="97.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="16" t="s">
+      <c r="E67" s="24"/>
+    </row>
+    <row r="68" spans="1:5" ht="97.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2445,9 +2528,10 @@
       <c r="D68" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="16" t="s">
+      <c r="E68" s="24"/>
+    </row>
+    <row r="69" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -2459,9 +2543,10 @@
       <c r="D69" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="16" t="s">
+      <c r="E69" s="24"/>
+    </row>
+    <row r="70" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2473,8 +2558,9 @@
       <c r="D70" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="E70" s="24"/>
+    </row>
+    <row r="71" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>238</v>
       </c>
@@ -2485,7 +2571,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>241</v>
       </c>
@@ -2496,7 +2582,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>243</v>
       </c>
@@ -2508,6 +2594,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D73" xr:uid="{3EF67149-916F-41F0-84C7-130E9AD548E7}"/>
   <mergeCells count="9">
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C16"/>
@@ -2528,7 +2615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54866170-13E9-46AA-BF61-EEDEF7A8C179}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2674,13 +2761,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>227</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -2688,49 +2775,49 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="3" t="s">
         <v>69</v>
       </c>
@@ -2739,53 +2826,53 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="15" t="s">
         <v>227</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2793,33 +2880,33 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
@@ -2828,25 +2915,25 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2996,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
@@ -3273,30 +3360,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="13" t="s">
         <v>280</v>
       </c>
       <c r="E2" t="s">
@@ -3304,156 +3391,156 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="13" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>278</v>
       </c>
     </row>
